--- a/self_check/forms/app/symptomatic_contact_follow_up.xlsx
+++ b/self_check/forms/app/symptomatic_contact_follow_up.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\self_check\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A9534E-52ED-1E46-B6ED-1DCF48059672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -175,9 +174,6 @@
     <t>external_id</t>
   </si>
   <si>
-    <t>Muso ID</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -275,12 +271,15 @@
   </si>
   <si>
     <t>COVID-19 symptomatic contact follow up</t>
+  </si>
+  <si>
+    <t>LGH ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -854,37 +853,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="24.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="24.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="39" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.875" style="1" customWidth="1"/>
     <col min="12" max="13" width="39" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="68.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.6640625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="24.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="68.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="24.375" style="1" customWidth="1"/>
     <col min="19" max="19" width="13.5" style="1" customWidth="1"/>
     <col min="20" max="30" width="10.5" style="1" customWidth="1"/>
     <col min="31" max="1018" width="10.5" customWidth="1"/>
-    <col min="1019" max="1026" width="8.33203125" customWidth="1"/>
+    <col min="1019" max="1026" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28 1025:1025" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28 1025:1025" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -948,7 +947,7 @@
       </c>
       <c r="AMK1"/>
     </row>
-    <row r="2" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -982,7 +981,7 @@
       </c>
       <c r="AMK2"/>
     </row>
-    <row r="3" spans="1:28 1025:1025" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28 1025:1025" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1005,7 +1004,7 @@
       <c r="P3" s="8"/>
       <c r="AMK3"/>
     </row>
-    <row r="4" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -1035,7 +1034,7 @@
       <c r="S4" s="9"/>
       <c r="AMK4"/>
     </row>
-    <row r="5" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1062,7 +1061,7 @@
       <c r="P5" s="6"/>
       <c r="AMK5"/>
     </row>
-    <row r="6" spans="1:28 1025:1025" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28 1025:1025" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -1086,7 +1085,7 @@
       <c r="S6" s="14"/>
       <c r="AMK6"/>
     </row>
-    <row r="7" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1113,7 +1112,7 @@
       <c r="P7" s="6"/>
       <c r="AMK7"/>
     </row>
-    <row r="8" spans="1:28 1025:1025" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28 1025:1025" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1130,7 +1129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -1162,7 +1161,7 @@
       <c r="S9" s="9"/>
       <c r="AMK9"/>
     </row>
-    <row r="10" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -1192,7 +1191,7 @@
       <c r="S10" s="9"/>
       <c r="AMK10"/>
     </row>
-    <row r="11" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
@@ -1222,7 +1221,7 @@
       <c r="S11" s="9"/>
       <c r="AMK11"/>
     </row>
-    <row r="12" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
@@ -1230,10 +1229,10 @@
         <v>43</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1250,7 +1249,7 @@
       <c r="S12" s="9"/>
       <c r="AMK12"/>
     </row>
-    <row r="13" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -1271,7 +1270,7 @@
       <c r="P13" s="6"/>
       <c r="AMK13"/>
     </row>
-    <row r="14" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -1292,27 +1291,27 @@
       <c r="P14" s="6"/>
       <c r="AMK14"/>
     </row>
-    <row r="15" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="F15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="G15" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -1322,7 +1321,7 @@
       <c r="M15" s="18"/>
       <c r="N15" s="19"/>
       <c r="O15" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P15" s="19"/>
       <c r="U15" s="17" t="s">
@@ -1330,18 +1329,18 @@
       </c>
       <c r="AMK15"/>
     </row>
-    <row r="16" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1373,37 +1372,37 @@
       <c r="AB16" s="22"/>
       <c r="AMK16"/>
     </row>
-    <row r="17" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="D17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>55</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="32"/>
       <c r="I17" s="24"/>
       <c r="K17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="17" t="s">
-        <v>57</v>
-      </c>
       <c r="M17" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AMK17"/>
     </row>
-    <row r="18" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>33</v>
       </c>
@@ -1421,26 +1420,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="76.1640625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="103.6640625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="27.375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="76.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="103.625" style="27" customWidth="1"/>
     <col min="5" max="1022" width="10.5" customWidth="1"/>
-    <col min="1023" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1023" max="1025" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -1452,41 +1451,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="C3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
     </row>
   </sheetData>
@@ -1496,60 +1495,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="121.5" style="27" customWidth="1"/>
     <col min="2" max="2" width="58.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="32.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="27" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="27" customWidth="1"/>
     <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="29" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="29" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="27" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" s="27" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="23" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-04-10 5-26</v>
+        <v>2020-10-04 11-30</v>
       </c>
       <c r="D2" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>69</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>70</v>
       </c>
       <c r="F2" s="31"/>
     </row>
